--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_26_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_26_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14222.68443279473</v>
+        <v>2830314.202126152</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14222.68443279473</v>
+        <v>2830314.202126152</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37714.12515137382</v>
+        <v>2266912.58539563</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37714.12515137382</v>
+        <v>2266912.58539563</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1114291856.617539</v>
+        <v>46001264.29824506</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11811.42342490991</v>
+        <v>1287351.509015969</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21278.25372149458</v>
+        <v>2174366.498417744</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30745.08401807922</v>
+        <v>3061381.48781952</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41099.35130644709</v>
+        <v>3907000.547469975</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51516.79496021368</v>
+        <v>4765191.70383478</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>61458.14592420137</v>
+        <v>5664155.247059216</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>71336.33486310071</v>
+        <v>6550549.547291073</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>81214.52380200008</v>
+        <v>7436943.84752293</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>91575.07879657272</v>
+        <v>8281397.975434418</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>102000.6241621728</v>
+        <v>9138785.187180376</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>112426.169527773</v>
+        <v>9996172.398926333</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>122851.7148933731</v>
+        <v>10853559.6106723</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>133277.2602589732</v>
+        <v>11710946.82241826</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>143702.8056245733</v>
+        <v>12568334.03416423</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>154128.3509901735</v>
+        <v>13425721.24591019</v>
       </c>
     </row>
   </sheetData>
@@ -27037,19 +27037,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>68</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1172</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
